--- a/biology/Zoologie/Euripus_nyctelius/Euripus_nyctelius.xlsx
+++ b/biology/Zoologie/Euripus_nyctelius/Euripus_nyctelius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euripus nyctelius est un lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Apaturinae et au genre Euripus.
 </t>
@@ -511,16 +523,88 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Euripus nyctelius a été nommé par Henry Doubleday en 1845[1].
-Noms vernaculaires
-Euripus nyctelius se nomme Courtesan en anglais.
-Sous-espèces
-Euripus nyctelius nyctelius en Inde et Birmanie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euripus nyctelius a été nommé par Henry Doubleday en 1845.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Euripus_nyctelius</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euripus_nyctelius</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euripus nyctelius se nomme Courtesan en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Euripus_nyctelius</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euripus_nyctelius</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Euripus nyctelius nyctelius en Inde et Birmanie.
 Euripus nyctelius borneensis Distant &amp; Pryer ;
 Euripus nyctelius clytia Felder ;  aux Philippines.
-Euripus nyctelius euploeoides C. et R. Felder, [1867] en Malaisie, à Singapour et Sumatra.
+Euripus nyctelius euploeoides C. et R. Felder,  en Malaisie, à Singapour et Sumatra.
 Euripus nyctelius javanus Fruhstorfer ;
 Euripus nyctelius mastor Fruhstorfer, 1903 ; dans toute l'Indochine.
 Euripus nyctelius niasicus Fruhstorfer ;
@@ -528,72 +612,7 @@
 Euripus nyctelius ophelion Fruhstorfer ;
 Euripus nyctelius orestheion Fruhstorfer ; aux Philippines.
 Euripus nyctelius palawanicus Fruhstorfer ; aux Philippines.
-Euripus nyctelius sumatrensis Fruhstorfer [1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Euripus_nyctelius</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Euripus_nyctelius</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un grand papillon de couleur marron orné de blanc sous forme de taches entre les nervures. Le mâle se fait passer pour Euploea radamanthus alors que la femelle existe sous deux formes, elle peut être semblable au mâle ou se faire passer pour la femelle d'Euploea radamanthus. Ils s'en distinguent par leurs yeux jaune doré[2].
-Chenille
-La chenille est verte et la chrysalide vert pâle[2].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Euripus_nyctelius</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Euripus_nyctelius</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes sont des Urticaceae dont Trema orientalis et Trema tomentosa[1].
-</t>
+Euripus nyctelius sumatrensis Fruhstorfer .</t>
         </is>
       </c>
     </row>
@@ -618,14 +637,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent en Asie du Sud-Est dans le nord-ouest de l'Inde (Sikkim et Assam) en Birmanie, Thaïlande, en Malaisie et dans les iles des Philippines, de Java, Sumatra, Bornéo et Nias[1].
-Biotope
-Il réside dans la forêt primaire jusqu'à 500 mètres d'altitude[2].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un grand papillon de couleur marron orné de blanc sous forme de taches entre les nervures. Le mâle se fait passer pour Euploea radamanthus alors que la femelle existe sous deux formes, elle peut être semblable au mâle ou se faire passer pour la femelle d'Euploea radamanthus. Ils s'en distinguent par leurs yeux jaune doré.
 </t>
         </is>
       </c>
@@ -651,12 +670,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Statut</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est déclaré en danger à Singapourbutterfly circle
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est verte et la chrysalide vert pâle.
 </t>
         </is>
       </c>
@@ -682,10 +707,152 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes sont des Urticaceae dont Trema orientalis et Trema tomentosa.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Euripus_nyctelius</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euripus_nyctelius</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Asie du Sud-Est dans le nord-ouest de l'Inde (Sikkim et Assam) en Birmanie, Thaïlande, en Malaisie et dans les iles des Philippines, de Java, Sumatra, Bornéo et Nias.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Euripus_nyctelius</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euripus_nyctelius</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt primaire jusqu'à 500 mètres d'altitude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Euripus_nyctelius</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euripus_nyctelius</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Statut</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est déclaré en danger à Singapourbutterfly circle
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Euripus_nyctelius</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euripus_nyctelius</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce papillon figure sur une émission du Laos de 1982 (valeur faciale : 3 k).
 </t>
